--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed1/result_data_KNN.xlsx
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.718</v>
+        <v>-20.575</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.424</v>
+        <v>-12.566</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.766</v>
+        <v>-22.275</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -522,12 +522,12 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.426</v>
+        <v>-7.810999999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.532</v>
+        <v>-19.948</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,21 +536,21 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.382</v>
+        <v>-8.537000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.964</v>
+        <v>-21.903</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.774</v>
+        <v>-12.453</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.488</v>
+        <v>-8.094000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.77</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.252000000000001</v>
+        <v>-7.641999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.154</v>
+        <v>-11.011</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.398</v>
+        <v>-7.817</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.513999999999999</v>
+        <v>-8.306000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.272</v>
+        <v>-22.025</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.980000000000001</v>
+        <v>-8.086</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.558</v>
+        <v>-12.948</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.672</v>
+        <v>-12.448</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.75</v>
+        <v>-12.126</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.204</v>
+        <v>-19.828</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.478</v>
+        <v>-11.729</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.374</v>
+        <v>-20.269</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.372</v>
+        <v>-12.5</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.088</v>
+        <v>-22.113</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.324</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.918</v>
+        <v>-21.758</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.24</v>
+        <v>-7.206999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.864</v>
+        <v>-12.711</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.994</v>
+        <v>-21.837</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.298</v>
+        <v>-8.440999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.744</v>
+        <v>-12.117</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.066</v>
+        <v>-19.927</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.36</v>
+        <v>-12.038</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.837999999999999</v>
+        <v>-7.996</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.54</v>
+        <v>-12.117</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.686</v>
+        <v>-12.14</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.456</v>
+        <v>-12.485</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.032</v>
+        <v>-7.766</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.022</v>
+        <v>-21.89</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.12</v>
+        <v>-12.125</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.024</v>
+        <v>-12.359</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.522</v>
+        <v>-21.71</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.84</v>
+        <v>-21.972</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.52</v>
+        <v>-13.268</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.076</v>
+        <v>-22.192</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.036</v>
+        <v>-22.42</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.976</v>
+        <v>-21.873</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-11.718</v>
+        <v>-12.286</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-9.98</v>
+        <v>-11.046</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.77</v>
+        <v>-10.674</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.798</v>
+        <v>-21.627</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.266</v>
+        <v>-7.702</v>
       </c>
     </row>
     <row r="71">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.574</v>
+        <v>-20.318</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.056</v>
+        <v>-21.036</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.676</v>
+        <v>-12.45</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.728</v>
+        <v>-20.407</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.418</v>
+        <v>-12.187</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.728</v>
+        <v>-13.162</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.782</v>
+        <v>-12.901</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.295999999999999</v>
+        <v>-8.123000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.134</v>
+        <v>-7.580000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.536</v>
+        <v>-21.722</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.94</v>
+        <v>-7.465999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.886</v>
+        <v>-11.87</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.548</v>
+        <v>-7.008</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.182</v>
+        <v>-22.159</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
